--- a/Reports/Trade and Distribution/Conclusion of Tranding and Distribution.xlsx
+++ b/Reports/Trade and Distribution/Conclusion of Tranding and Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\Trade and Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24694706-3CD9-4786-970E-F41041DBDC6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24551D37-91E0-439D-AAB2-0BFABB4B2E94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>Timestamp</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>Stock Manager (7 years experience)</t>
-  </si>
-  <si>
-    <t>Average of Marketing Officer (1 - 3 years experience)</t>
   </si>
   <si>
     <t>ທັກສະດ້ານເຕັກນິກ</t>
@@ -357,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -365,18 +362,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,11 +972,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43651.600733449071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{B7E1739E-6882-4425-A0FD-32719C857320}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43658.462037500001" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{B7E1739E-6882-4425-A0FD-32719C857320}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="43">
+  <cacheFields count="54">
     <cacheField name="Timestamp" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-12T13:15:15" maxDate="2019-06-25T19:09:06"/>
     </cacheField>
@@ -988,7 +1104,40 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="What kind of skills does your Company or Organization require?" numFmtId="0">
-      <sharedItems longText="1"/>
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column6" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column7" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column8" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column9" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1044,7 +1193,18 @@
     <s v="ເອັນຈີເນຍລິງ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານພາສາ"/>
+    <s v="ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-12T14:29:08"/>
@@ -1089,7 +1249,18 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-13T10:57:05"/>
@@ -1134,7 +1305,18 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-18T17:17:13"/>
@@ -1179,7 +1361,18 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-25T13:23:25"/>
@@ -1224,7 +1417,18 @@
     <s v="Sale"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-25T19:09:06"/>
@@ -1269,15 +1473,26 @@
     <s v="ພະນັກງານຂາຍ, ການຕະຫລາດ, ຈັດຊື້"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40EF3BCF-7686-44FD-BA7F-0FDDE61A0192}" name="RawData" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="43">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40EF3BCF-7686-44FD-BA7F-0FDDE61A0192}" name="RawData" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="54">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1292,7 +1507,18 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1322,15 +1548,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Marketing Officer (1 - 3 years experience)" fld="14" subtotal="average" baseField="0" baseItem="1493318080"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1703,26 +1920,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B5A95-2CC0-42C5-9C06-8BD3BEABF9EA}">
-  <dimension ref="A3:A4"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>298.73953488372092</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,7 +2035,7 @@
   </sheetPr>
   <dimension ref="A1:BH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AQ7" sqref="AQ7:BC7"/>
     </sheetView>
@@ -1910,37 +2209,37 @@
         <v>10</v>
       </c>
       <c r="AR1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AS1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT1" t="s">
         <v>81</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>82</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>83</v>
       </c>
-      <c r="AV1" t="s">
-        <v>84</v>
-      </c>
       <c r="AW1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY1" t="s">
         <v>92</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>94</v>
-      </c>
       <c r="BA1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" t="s">
         <v>96</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,10 +2366,10 @@
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
@@ -2209,22 +2508,22 @@
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
@@ -2327,25 +2626,25 @@
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AR4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AS4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
@@ -2447,34 +2746,34 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AS5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AS5" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="AT5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AU5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="AZ5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
@@ -2586,22 +2885,22 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AR6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="AU6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV6" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
@@ -2772,40 +3071,40 @@
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="AS7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AS7" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="AT7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AU7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY7" s="3" t="s">
+      <c r="BA7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AZ7" s="3" t="s">
+      <c r="BB7" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="BA7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
